--- a/src/main/resources/exceltestdata/GBT.xlsx
+++ b/src/main/resources/exceltestdata/GBT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\pega-automation-framework\src\main\resources\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9943A43A-DD8E-43CF-B7B8-CB357BE10726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C23DC4-45E5-4552-92A9-DF05CF8603BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>RuleType</t>
   </si>
@@ -126,9 +126,6 @@
     <t>CAInitialSetUp</t>
   </si>
   <si>
-    <t>MNTC-BFSCS-Work-Grp1-Interaction-InCorr</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://bfs.maanticpegaservices.com/prweb</t>
-  </si>
-  <si>
     <t>Navneet</t>
   </si>
   <si>
@@ -177,17 +171,16 @@
     <t>getURL</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t xml:space="preserve">PegaCA-Work-Interaction-InCorr </t>
+  </si>
+  <si>
+    <t>https://bfs.maanticpegaservices.com/prweb/app/banking-customer-service_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,43 +572,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A5640B-F915-47DB-8E0E-2580AF62DB1F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.88671875"/>
-    <col min="2" max="2" customWidth="true" width="37.88671875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125"/>
+    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -630,21 +623,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.77734375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.77734375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.21875"/>
-    <col min="5" max="13" bestFit="true" customWidth="true" width="7.77734375"/>
-    <col min="14" max="16" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.77734375"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -714,13 +707,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>22</v>
@@ -731,22 +724,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -757,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -830,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -883,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -892,7 +879,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>27</v>
